--- a/data/trans_orig/IP05A07-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/IP05A07-Estudios-trans_orig.xlsx
@@ -8,13 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{EF753D13-0B3D-45C0-A17A-29B39C01EC72}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{5C5D39C2-4410-4EDE-9BA3-4922FD499D71}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{265D348B-5B96-4019-B1EA-BCF6078B3F69}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{9F01A97D-C002-4361-ABE9-9BC38D34A427}"/>
   </bookViews>
   <sheets>
     <sheet name="2012" sheetId="2" r:id="rId1"/>
-    <sheet name="2015" sheetId="3" r:id="rId2"/>
+    <sheet name="2016" sheetId="3" r:id="rId2"/>
     <sheet name="2023" sheetId="4" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="675" uniqueCount="344">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="675" uniqueCount="346">
   <si>
     <t>Población según si en el barrio donde vive hay trafico intenso de vehículos de motor en 2012 (Tasa respuesta: 99,9%)</t>
   </si>
@@ -106,79 +106,79 @@
     <t>44,98%</t>
   </si>
   <si>
-    <t>36,39%</t>
-  </si>
-  <si>
-    <t>53,73%</t>
+    <t>36,02%</t>
+  </si>
+  <si>
+    <t>54,44%</t>
   </si>
   <si>
     <t>47,61%</t>
   </si>
   <si>
-    <t>39,0%</t>
-  </si>
-  <si>
-    <t>56,5%</t>
+    <t>39,17%</t>
+  </si>
+  <si>
+    <t>57,13%</t>
   </si>
   <si>
     <t>46,34%</t>
   </si>
   <si>
-    <t>40,14%</t>
-  </si>
-  <si>
-    <t>52,28%</t>
-  </si>
-  <si>
-    <t>35,59%</t>
-  </si>
-  <si>
-    <t>52,99%</t>
+    <t>40,18%</t>
+  </si>
+  <si>
+    <t>52,24%</t>
+  </si>
+  <si>
+    <t>36,0%</t>
+  </si>
+  <si>
+    <t>54,01%</t>
   </si>
   <si>
     <t>39,19%</t>
   </si>
   <si>
-    <t>31,45%</t>
-  </si>
-  <si>
-    <t>48,14%</t>
+    <t>31,24%</t>
+  </si>
+  <si>
+    <t>48,33%</t>
   </si>
   <si>
     <t>42,0%</t>
   </si>
   <si>
-    <t>35,94%</t>
-  </si>
-  <si>
-    <t>47,82%</t>
+    <t>36,24%</t>
+  </si>
+  <si>
+    <t>48,2%</t>
   </si>
   <si>
     <t>10,04%</t>
   </si>
   <si>
-    <t>5,51%</t>
-  </si>
-  <si>
-    <t>16,33%</t>
+    <t>5,93%</t>
+  </si>
+  <si>
+    <t>17,17%</t>
   </si>
   <si>
     <t>13,2%</t>
   </si>
   <si>
-    <t>8,25%</t>
-  </si>
-  <si>
-    <t>20,41%</t>
+    <t>7,89%</t>
+  </si>
+  <si>
+    <t>19,78%</t>
   </si>
   <si>
     <t>11,67%</t>
   </si>
   <si>
-    <t>7,81%</t>
-  </si>
-  <si>
-    <t>15,93%</t>
+    <t>8,23%</t>
+  </si>
+  <si>
+    <t>16,2%</t>
   </si>
   <si>
     <t>Secundarios</t>
@@ -187,889 +187,895 @@
     <t>55,45%</t>
   </si>
   <si>
-    <t>51,58%</t>
-  </si>
-  <si>
-    <t>59,02%</t>
+    <t>51,27%</t>
+  </si>
+  <si>
+    <t>58,98%</t>
   </si>
   <si>
     <t>56,64%</t>
   </si>
   <si>
-    <t>52,7%</t>
-  </si>
-  <si>
-    <t>59,98%</t>
+    <t>52,98%</t>
+  </si>
+  <si>
+    <t>60,33%</t>
   </si>
   <si>
     <t>56,02%</t>
   </si>
   <si>
-    <t>53,37%</t>
-  </si>
-  <si>
-    <t>58,63%</t>
+    <t>53,52%</t>
+  </si>
+  <si>
+    <t>58,85%</t>
   </si>
   <si>
     <t>32,21%</t>
   </si>
   <si>
-    <t>28,82%</t>
-  </si>
-  <si>
-    <t>35,55%</t>
+    <t>28,58%</t>
+  </si>
+  <si>
+    <t>35,52%</t>
   </si>
   <si>
     <t>33,2%</t>
   </si>
   <si>
-    <t>30,18%</t>
-  </si>
-  <si>
-    <t>37,24%</t>
+    <t>29,78%</t>
+  </si>
+  <si>
+    <t>36,98%</t>
   </si>
   <si>
     <t>32,68%</t>
   </si>
   <si>
-    <t>30,29%</t>
-  </si>
-  <si>
-    <t>35,1%</t>
+    <t>30,12%</t>
+  </si>
+  <si>
+    <t>35,21%</t>
   </si>
   <si>
     <t>12,34%</t>
   </si>
   <si>
-    <t>9,97%</t>
-  </si>
-  <si>
-    <t>14,94%</t>
+    <t>10,12%</t>
+  </si>
+  <si>
+    <t>14,85%</t>
   </si>
   <si>
     <t>10,17%</t>
   </si>
   <si>
-    <t>7,92%</t>
+    <t>8,11%</t>
+  </si>
+  <si>
+    <t>12,95%</t>
+  </si>
+  <si>
+    <t>11,3%</t>
+  </si>
+  <si>
+    <t>9,8%</t>
+  </si>
+  <si>
+    <t>13,18%</t>
+  </si>
+  <si>
+    <t>Universitarios</t>
+  </si>
+  <si>
+    <t>48,59%</t>
+  </si>
+  <si>
+    <t>42,07%</t>
+  </si>
+  <si>
+    <t>54,62%</t>
+  </si>
+  <si>
+    <t>48,96%</t>
+  </si>
+  <si>
+    <t>41,78%</t>
+  </si>
+  <si>
+    <t>55,34%</t>
+  </si>
+  <si>
+    <t>48,78%</t>
+  </si>
+  <si>
+    <t>44,49%</t>
+  </si>
+  <si>
+    <t>53,5%</t>
+  </si>
+  <si>
+    <t>36,15%</t>
+  </si>
+  <si>
+    <t>30,53%</t>
+  </si>
+  <si>
+    <t>42,17%</t>
+  </si>
+  <si>
+    <t>34,08%</t>
+  </si>
+  <si>
+    <t>28,21%</t>
+  </si>
+  <si>
+    <t>41,43%</t>
+  </si>
+  <si>
+    <t>35,13%</t>
+  </si>
+  <si>
+    <t>30,96%</t>
+  </si>
+  <si>
+    <t>39,58%</t>
+  </si>
+  <si>
+    <t>15,26%</t>
+  </si>
+  <si>
+    <t>10,84%</t>
+  </si>
+  <si>
+    <t>20,2%</t>
+  </si>
+  <si>
+    <t>16,96%</t>
+  </si>
+  <si>
+    <t>12,24%</t>
+  </si>
+  <si>
+    <t>22,75%</t>
+  </si>
+  <si>
+    <t>16,09%</t>
+  </si>
+  <si>
+    <t>13,01%</t>
+  </si>
+  <si>
+    <t>19,84%</t>
+  </si>
+  <si>
+    <t>52,64%</t>
+  </si>
+  <si>
+    <t>49,41%</t>
+  </si>
+  <si>
+    <t>55,56%</t>
+  </si>
+  <si>
+    <t>53,67%</t>
+  </si>
+  <si>
+    <t>50,93%</t>
+  </si>
+  <si>
+    <t>56,96%</t>
+  </si>
+  <si>
+    <t>53,14%</t>
+  </si>
+  <si>
+    <t>51,07%</t>
+  </si>
+  <si>
+    <t>55,31%</t>
+  </si>
+  <si>
+    <t>34,63%</t>
+  </si>
+  <si>
+    <t>31,77%</t>
+  </si>
+  <si>
+    <t>37,51%</t>
+  </si>
+  <si>
+    <t>34,18%</t>
+  </si>
+  <si>
+    <t>31,25%</t>
+  </si>
+  <si>
+    <t>37,01%</t>
+  </si>
+  <si>
+    <t>34,41%</t>
+  </si>
+  <si>
+    <t>32,37%</t>
+  </si>
+  <si>
+    <t>36,59%</t>
   </si>
   <si>
     <t>12,73%</t>
   </si>
   <si>
-    <t>11,3%</t>
-  </si>
-  <si>
-    <t>9,7%</t>
-  </si>
-  <si>
-    <t>13,13%</t>
-  </si>
-  <si>
-    <t>Universitarios</t>
-  </si>
-  <si>
-    <t>48,59%</t>
-  </si>
-  <si>
-    <t>42,02%</t>
-  </si>
-  <si>
-    <t>54,7%</t>
-  </si>
-  <si>
-    <t>48,96%</t>
-  </si>
-  <si>
-    <t>42,16%</t>
-  </si>
-  <si>
-    <t>55,03%</t>
-  </si>
-  <si>
-    <t>48,78%</t>
-  </si>
-  <si>
-    <t>44,76%</t>
-  </si>
-  <si>
-    <t>53,48%</t>
-  </si>
-  <si>
-    <t>36,15%</t>
-  </si>
-  <si>
-    <t>30,46%</t>
-  </si>
-  <si>
-    <t>42,67%</t>
-  </si>
-  <si>
-    <t>34,08%</t>
-  </si>
-  <si>
-    <t>28,22%</t>
-  </si>
-  <si>
-    <t>40,48%</t>
-  </si>
-  <si>
-    <t>35,13%</t>
-  </si>
-  <si>
-    <t>30,48%</t>
-  </si>
-  <si>
-    <t>39,24%</t>
-  </si>
-  <si>
-    <t>15,26%</t>
+    <t>10,94%</t>
+  </si>
+  <si>
+    <t>15,02%</t>
+  </si>
+  <si>
+    <t>12,15%</t>
+  </si>
+  <si>
+    <t>10,18%</t>
+  </si>
+  <si>
+    <t>14,25%</t>
+  </si>
+  <si>
+    <t>12,45%</t>
+  </si>
+  <si>
+    <t>11,01%</t>
+  </si>
+  <si>
+    <t>13,89%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
+  </si>
+  <si>
+    <t>Población según si en el barrio donde vive hay trafico intenso de vehículos de motor en 2016 (Tasa respuesta: 99,81%)</t>
+  </si>
+  <si>
+    <t>62,85%</t>
+  </si>
+  <si>
+    <t>52,63%</t>
+  </si>
+  <si>
+    <t>71,95%</t>
+  </si>
+  <si>
+    <t>60,97%</t>
+  </si>
+  <si>
+    <t>49,8%</t>
+  </si>
+  <si>
+    <t>70,32%</t>
+  </si>
+  <si>
+    <t>61,98%</t>
+  </si>
+  <si>
+    <t>54,56%</t>
+  </si>
+  <si>
+    <t>68,49%</t>
+  </si>
+  <si>
+    <t>24,51%</t>
+  </si>
+  <si>
+    <t>16,81%</t>
+  </si>
+  <si>
+    <t>33,74%</t>
+  </si>
+  <si>
+    <t>28,28%</t>
+  </si>
+  <si>
+    <t>20,03%</t>
+  </si>
+  <si>
+    <t>38,74%</t>
+  </si>
+  <si>
+    <t>26,26%</t>
+  </si>
+  <si>
+    <t>19,85%</t>
+  </si>
+  <si>
+    <t>32,56%</t>
+  </si>
+  <si>
+    <t>12,65%</t>
+  </si>
+  <si>
+    <t>7,21%</t>
+  </si>
+  <si>
+    <t>19,97%</t>
+  </si>
+  <si>
+    <t>10,75%</t>
+  </si>
+  <si>
+    <t>5,4%</t>
+  </si>
+  <si>
+    <t>19,52%</t>
+  </si>
+  <si>
+    <t>11,77%</t>
+  </si>
+  <si>
+    <t>7,73%</t>
+  </si>
+  <si>
+    <t>17,23%</t>
+  </si>
+  <si>
+    <t>66,16%</t>
+  </si>
+  <si>
+    <t>62,77%</t>
+  </si>
+  <si>
+    <t>69,77%</t>
+  </si>
+  <si>
+    <t>66,56%</t>
+  </si>
+  <si>
+    <t>62,86%</t>
+  </si>
+  <si>
+    <t>70,28%</t>
+  </si>
+  <si>
+    <t>66,36%</t>
+  </si>
+  <si>
+    <t>63,98%</t>
+  </si>
+  <si>
+    <t>68,9%</t>
+  </si>
+  <si>
+    <t>23,8%</t>
+  </si>
+  <si>
+    <t>20,73%</t>
+  </si>
+  <si>
+    <t>26,85%</t>
+  </si>
+  <si>
+    <t>25,49%</t>
+  </si>
+  <si>
+    <t>22,1%</t>
+  </si>
+  <si>
+    <t>28,71%</t>
+  </si>
+  <si>
+    <t>24,63%</t>
+  </si>
+  <si>
+    <t>22,62%</t>
+  </si>
+  <si>
+    <t>26,78%</t>
+  </si>
+  <si>
+    <t>10,03%</t>
+  </si>
+  <si>
+    <t>12,22%</t>
+  </si>
+  <si>
+    <t>7,95%</t>
+  </si>
+  <si>
+    <t>6,13%</t>
+  </si>
+  <si>
+    <t>10,36%</t>
+  </si>
+  <si>
+    <t>9,01%</t>
+  </si>
+  <si>
+    <t>7,69%</t>
+  </si>
+  <si>
+    <t>10,66%</t>
+  </si>
+  <si>
+    <t>67,97%</t>
+  </si>
+  <si>
+    <t>61,95%</t>
+  </si>
+  <si>
+    <t>73,56%</t>
+  </si>
+  <si>
+    <t>63,75%</t>
+  </si>
+  <si>
+    <t>57,76%</t>
+  </si>
+  <si>
+    <t>69,56%</t>
+  </si>
+  <si>
+    <t>65,95%</t>
+  </si>
+  <si>
+    <t>61,94%</t>
+  </si>
+  <si>
+    <t>69,81%</t>
+  </si>
+  <si>
+    <t>21,58%</t>
+  </si>
+  <si>
+    <t>17,22%</t>
+  </si>
+  <si>
+    <t>27,04%</t>
+  </si>
+  <si>
+    <t>23,95%</t>
+  </si>
+  <si>
+    <t>19,1%</t>
+  </si>
+  <si>
+    <t>29,21%</t>
+  </si>
+  <si>
+    <t>22,71%</t>
+  </si>
+  <si>
+    <t>19,54%</t>
+  </si>
+  <si>
+    <t>26,92%</t>
+  </si>
+  <si>
+    <t>10,45%</t>
+  </si>
+  <si>
+    <t>7,27%</t>
+  </si>
+  <si>
+    <t>14,89%</t>
+  </si>
+  <si>
+    <t>12,3%</t>
+  </si>
+  <si>
+    <t>8,46%</t>
+  </si>
+  <si>
+    <t>16,65%</t>
+  </si>
+  <si>
+    <t>11,34%</t>
+  </si>
+  <si>
+    <t>8,83%</t>
+  </si>
+  <si>
+    <t>14,39%</t>
+  </si>
+  <si>
+    <t>66,31%</t>
+  </si>
+  <si>
+    <t>63,48%</t>
+  </si>
+  <si>
+    <t>69,11%</t>
+  </si>
+  <si>
+    <t>65,4%</t>
+  </si>
+  <si>
+    <t>62,4%</t>
+  </si>
+  <si>
+    <t>68,21%</t>
+  </si>
+  <si>
+    <t>65,87%</t>
+  </si>
+  <si>
+    <t>63,86%</t>
+  </si>
+  <si>
+    <t>67,83%</t>
+  </si>
+  <si>
+    <t>23,31%</t>
+  </si>
+  <si>
+    <t>20,75%</t>
+  </si>
+  <si>
+    <t>25,75%</t>
+  </si>
+  <si>
+    <t>25,35%</t>
+  </si>
+  <si>
+    <t>22,77%</t>
+  </si>
+  <si>
+    <t>28,17%</t>
+  </si>
+  <si>
+    <t>24,3%</t>
+  </si>
+  <si>
+    <t>22,43%</t>
+  </si>
+  <si>
+    <t>26,2%</t>
+  </si>
+  <si>
+    <t>10,38%</t>
+  </si>
+  <si>
+    <t>8,71%</t>
+  </si>
+  <si>
+    <t>12,43%</t>
+  </si>
+  <si>
+    <t>9,25%</t>
+  </si>
+  <si>
+    <t>7,54%</t>
+  </si>
+  <si>
+    <t>11,07%</t>
+  </si>
+  <si>
+    <t>9,83%</t>
+  </si>
+  <si>
+    <t>8,58%</t>
   </si>
   <si>
     <t>11,17%</t>
   </si>
   <si>
-    <t>20,13%</t>
-  </si>
-  <si>
-    <t>16,96%</t>
-  </si>
-  <si>
-    <t>12,36%</t>
-  </si>
-  <si>
-    <t>22,39%</t>
-  </si>
-  <si>
-    <t>16,09%</t>
-  </si>
-  <si>
-    <t>12,81%</t>
-  </si>
-  <si>
-    <t>19,62%</t>
-  </si>
-  <si>
-    <t>52,64%</t>
-  </si>
-  <si>
-    <t>49,35%</t>
-  </si>
-  <si>
-    <t>55,56%</t>
-  </si>
-  <si>
-    <t>53,67%</t>
-  </si>
-  <si>
-    <t>50,53%</t>
-  </si>
-  <si>
-    <t>56,73%</t>
-  </si>
-  <si>
-    <t>53,14%</t>
-  </si>
-  <si>
-    <t>50,81%</t>
-  </si>
-  <si>
-    <t>55,15%</t>
-  </si>
-  <si>
-    <t>34,63%</t>
-  </si>
-  <si>
-    <t>31,99%</t>
-  </si>
-  <si>
-    <t>37,99%</t>
-  </si>
-  <si>
-    <t>34,18%</t>
-  </si>
-  <si>
-    <t>31,3%</t>
-  </si>
-  <si>
-    <t>37,35%</t>
-  </si>
-  <si>
-    <t>34,41%</t>
-  </si>
-  <si>
-    <t>32,37%</t>
-  </si>
-  <si>
-    <t>36,55%</t>
+    <t>Población según si en el barrio donde vive hay trafico intenso de vehículos de motor en 2023 (Tasa respuesta: 99,9%)</t>
+  </si>
+  <si>
+    <t>77,66%</t>
+  </si>
+  <si>
+    <t>65,06%</t>
+  </si>
+  <si>
+    <t>86,05%</t>
+  </si>
+  <si>
+    <t>81,79%</t>
+  </si>
+  <si>
+    <t>69,85%</t>
+  </si>
+  <si>
+    <t>90,25%</t>
+  </si>
+  <si>
+    <t>79,58%</t>
+  </si>
+  <si>
+    <t>72,63%</t>
+  </si>
+  <si>
+    <t>86,0%</t>
+  </si>
+  <si>
+    <t>10,24%</t>
+  </si>
+  <si>
+    <t>4,84%</t>
+  </si>
+  <si>
+    <t>18,28%</t>
+  </si>
+  <si>
+    <t>12,83%</t>
+  </si>
+  <si>
+    <t>6,21%</t>
+  </si>
+  <si>
+    <t>22,7%</t>
+  </si>
+  <si>
+    <t>11,44%</t>
+  </si>
+  <si>
+    <t>7,34%</t>
+  </si>
+  <si>
+    <t>17,44%</t>
+  </si>
+  <si>
+    <t>12,1%</t>
+  </si>
+  <si>
+    <t>5,77%</t>
+  </si>
+  <si>
+    <t>21,91%</t>
+  </si>
+  <si>
+    <t>5,39%</t>
+  </si>
+  <si>
+    <t>1,5%</t>
+  </si>
+  <si>
+    <t>14,08%</t>
+  </si>
+  <si>
+    <t>8,98%</t>
+  </si>
+  <si>
+    <t>5,1%</t>
+  </si>
+  <si>
+    <t>15,64%</t>
+  </si>
+  <si>
+    <t>77,39%</t>
+  </si>
+  <si>
+    <t>73,53%</t>
+  </si>
+  <si>
+    <t>80,89%</t>
+  </si>
+  <si>
+    <t>75,9%</t>
+  </si>
+  <si>
+    <t>70,76%</t>
+  </si>
+  <si>
+    <t>79,49%</t>
+  </si>
+  <si>
+    <t>76,68%</t>
+  </si>
+  <si>
+    <t>73,58%</t>
+  </si>
+  <si>
+    <t>79,11%</t>
+  </si>
+  <si>
+    <t>14,47%</t>
+  </si>
+  <si>
+    <t>11,91%</t>
+  </si>
+  <si>
+    <t>18,19%</t>
+  </si>
+  <si>
+    <t>16,73%</t>
+  </si>
+  <si>
+    <t>13,6%</t>
+  </si>
+  <si>
+    <t>22,76%</t>
+  </si>
+  <si>
+    <t>15,55%</t>
+  </si>
+  <si>
+    <t>13,4%</t>
+  </si>
+  <si>
+    <t>18,79%</t>
+  </si>
+  <si>
+    <t>8,14%</t>
+  </si>
+  <si>
+    <t>6,14%</t>
+  </si>
+  <si>
+    <t>10,57%</t>
+  </si>
+  <si>
+    <t>7,37%</t>
+  </si>
+  <si>
+    <t>5,32%</t>
+  </si>
+  <si>
+    <t>9,63%</t>
+  </si>
+  <si>
+    <t>7,77%</t>
+  </si>
+  <si>
+    <t>6,35%</t>
+  </si>
+  <si>
+    <t>9,4%</t>
+  </si>
+  <si>
+    <t>72,21%</t>
+  </si>
+  <si>
+    <t>65,72%</t>
+  </si>
+  <si>
+    <t>78,25%</t>
+  </si>
+  <si>
+    <t>71,1%</t>
+  </si>
+  <si>
+    <t>64,58%</t>
+  </si>
+  <si>
+    <t>76,73%</t>
+  </si>
+  <si>
+    <t>71,69%</t>
+  </si>
+  <si>
+    <t>67,14%</t>
+  </si>
+  <si>
+    <t>75,86%</t>
+  </si>
+  <si>
+    <t>16,97%</t>
+  </si>
+  <si>
+    <t>12,33%</t>
+  </si>
+  <si>
+    <t>16,11%</t>
+  </si>
+  <si>
+    <t>11,58%</t>
+  </si>
+  <si>
+    <t>21,75%</t>
+  </si>
+  <si>
+    <t>16,57%</t>
+  </si>
+  <si>
+    <t>13,08%</t>
+  </si>
+  <si>
+    <t>20,39%</t>
+  </si>
+  <si>
+    <t>10,82%</t>
+  </si>
+  <si>
+    <t>7,12%</t>
+  </si>
+  <si>
+    <t>15,51%</t>
+  </si>
+  <si>
+    <t>12,79%</t>
+  </si>
+  <si>
+    <t>8,9%</t>
+  </si>
+  <si>
+    <t>18,3%</t>
+  </si>
+  <si>
+    <t>11,74%</t>
+  </si>
+  <si>
+    <t>9,03%</t>
+  </si>
+  <si>
+    <t>15,22%</t>
+  </si>
+  <si>
+    <t>76,17%</t>
+  </si>
+  <si>
+    <t>72,89%</t>
+  </si>
+  <si>
+    <t>79,03%</t>
+  </si>
+  <si>
+    <t>75,25%</t>
+  </si>
+  <si>
+    <t>71,49%</t>
+  </si>
+  <si>
+    <t>78,52%</t>
+  </si>
+  <si>
+    <t>75,73%</t>
+  </si>
+  <si>
+    <t>73,35%</t>
+  </si>
+  <si>
+    <t>78,01%</t>
+  </si>
+  <si>
+    <t>14,73%</t>
+  </si>
+  <si>
+    <t>17,73%</t>
+  </si>
+  <si>
+    <t>16,28%</t>
+  </si>
+  <si>
+    <t>13,36%</t>
+  </si>
+  <si>
+    <t>20,0%</t>
+  </si>
+  <si>
+    <t>15,46%</t>
+  </si>
+  <si>
+    <t>13,57%</t>
+  </si>
+  <si>
+    <t>17,87%</t>
+  </si>
+  <si>
+    <t>9,1%</t>
+  </si>
+  <si>
+    <t>7,38%</t>
+  </si>
+  <si>
+    <t>11,31%</t>
+  </si>
+  <si>
+    <t>8,47%</t>
+  </si>
+  <si>
+    <t>6,79%</t>
   </si>
   <si>
     <t>10,63%</t>
   </si>
   <si>
-    <t>14,83%</t>
-  </si>
-  <si>
-    <t>12,15%</t>
-  </si>
-  <si>
-    <t>10,23%</t>
-  </si>
-  <si>
-    <t>14,21%</t>
-  </si>
-  <si>
-    <t>12,45%</t>
-  </si>
-  <si>
-    <t>14,14%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
-  </si>
-  <si>
-    <t>Población según si en el barrio donde vive hay trafico intenso de vehículos de motor en 2015 (Tasa respuesta: 99,81%)</t>
-  </si>
-  <si>
-    <t>62,85%</t>
-  </si>
-  <si>
-    <t>53,23%</t>
-  </si>
-  <si>
-    <t>71,91%</t>
-  </si>
-  <si>
-    <t>60,97%</t>
-  </si>
-  <si>
-    <t>49,92%</t>
-  </si>
-  <si>
-    <t>70,57%</t>
-  </si>
-  <si>
-    <t>61,98%</t>
-  </si>
-  <si>
-    <t>54,62%</t>
-  </si>
-  <si>
-    <t>68,88%</t>
-  </si>
-  <si>
-    <t>24,51%</t>
-  </si>
-  <si>
-    <t>17,26%</t>
-  </si>
-  <si>
-    <t>34,43%</t>
-  </si>
-  <si>
-    <t>28,28%</t>
-  </si>
-  <si>
-    <t>20,08%</t>
-  </si>
-  <si>
-    <t>39,39%</t>
-  </si>
-  <si>
-    <t>26,26%</t>
-  </si>
-  <si>
-    <t>20,15%</t>
-  </si>
-  <si>
-    <t>33,42%</t>
-  </si>
-  <si>
-    <t>12,65%</t>
-  </si>
-  <si>
-    <t>7,38%</t>
-  </si>
-  <si>
-    <t>20,42%</t>
-  </si>
-  <si>
-    <t>10,75%</t>
-  </si>
-  <si>
-    <t>5,54%</t>
-  </si>
-  <si>
-    <t>19,2%</t>
-  </si>
-  <si>
-    <t>11,77%</t>
-  </si>
-  <si>
-    <t>7,33%</t>
-  </si>
-  <si>
-    <t>16,95%</t>
-  </si>
-  <si>
-    <t>66,16%</t>
-  </si>
-  <si>
-    <t>62,75%</t>
-  </si>
-  <si>
-    <t>69,52%</t>
-  </si>
-  <si>
-    <t>66,56%</t>
-  </si>
-  <si>
-    <t>63,22%</t>
-  </si>
-  <si>
-    <t>70,02%</t>
-  </si>
-  <si>
-    <t>66,36%</t>
-  </si>
-  <si>
-    <t>63,83%</t>
-  </si>
-  <si>
-    <t>68,73%</t>
-  </si>
-  <si>
-    <t>23,8%</t>
-  </si>
-  <si>
-    <t>20,96%</t>
-  </si>
-  <si>
-    <t>26,84%</t>
-  </si>
-  <si>
-    <t>25,49%</t>
-  </si>
-  <si>
-    <t>22,37%</t>
-  </si>
-  <si>
-    <t>28,74%</t>
-  </si>
-  <si>
-    <t>24,63%</t>
-  </si>
-  <si>
-    <t>22,28%</t>
-  </si>
-  <si>
-    <t>27,03%</t>
-  </si>
-  <si>
-    <t>10,03%</t>
-  </si>
-  <si>
-    <t>8,03%</t>
-  </si>
-  <si>
-    <t>12,3%</t>
-  </si>
-  <si>
-    <t>7,95%</t>
-  </si>
-  <si>
-    <t>6,08%</t>
-  </si>
-  <si>
-    <t>10,2%</t>
-  </si>
-  <si>
-    <t>9,01%</t>
-  </si>
-  <si>
-    <t>7,63%</t>
-  </si>
-  <si>
-    <t>10,64%</t>
-  </si>
-  <si>
-    <t>67,97%</t>
-  </si>
-  <si>
-    <t>61,97%</t>
-  </si>
-  <si>
-    <t>72,87%</t>
-  </si>
-  <si>
-    <t>63,75%</t>
-  </si>
-  <si>
-    <t>57,32%</t>
-  </si>
-  <si>
-    <t>69,05%</t>
-  </si>
-  <si>
-    <t>65,95%</t>
-  </si>
-  <si>
-    <t>61,79%</t>
-  </si>
-  <si>
-    <t>70,15%</t>
-  </si>
-  <si>
-    <t>21,58%</t>
-  </si>
-  <si>
-    <t>17,1%</t>
-  </si>
-  <si>
-    <t>27,49%</t>
-  </si>
-  <si>
-    <t>23,95%</t>
-  </si>
-  <si>
-    <t>29,5%</t>
-  </si>
-  <si>
-    <t>22,71%</t>
-  </si>
-  <si>
-    <t>19,21%</t>
-  </si>
-  <si>
-    <t>26,28%</t>
-  </si>
-  <si>
-    <t>10,45%</t>
-  </si>
-  <si>
-    <t>7,27%</t>
-  </si>
-  <si>
-    <t>14,67%</t>
-  </si>
-  <si>
-    <t>8,69%</t>
-  </si>
-  <si>
-    <t>16,77%</t>
-  </si>
-  <si>
-    <t>11,34%</t>
-  </si>
-  <si>
-    <t>8,87%</t>
-  </si>
-  <si>
-    <t>14,36%</t>
-  </si>
-  <si>
-    <t>66,31%</t>
-  </si>
-  <si>
-    <t>63,68%</t>
-  </si>
-  <si>
-    <t>69,27%</t>
-  </si>
-  <si>
-    <t>65,4%</t>
-  </si>
-  <si>
-    <t>62,16%</t>
-  </si>
-  <si>
-    <t>68,09%</t>
-  </si>
-  <si>
-    <t>65,87%</t>
-  </si>
-  <si>
-    <t>63,79%</t>
-  </si>
-  <si>
-    <t>67,78%</t>
-  </si>
-  <si>
-    <t>23,31%</t>
-  </si>
-  <si>
-    <t>20,83%</t>
-  </si>
-  <si>
-    <t>25,89%</t>
-  </si>
-  <si>
-    <t>25,35%</t>
-  </si>
-  <si>
-    <t>22,96%</t>
-  </si>
-  <si>
-    <t>28,16%</t>
-  </si>
-  <si>
-    <t>24,3%</t>
-  </si>
-  <si>
-    <t>22,61%</t>
-  </si>
-  <si>
-    <t>26,32%</t>
-  </si>
-  <si>
-    <t>10,38%</t>
-  </si>
-  <si>
-    <t>8,65%</t>
-  </si>
-  <si>
-    <t>12,27%</t>
-  </si>
-  <si>
-    <t>9,25%</t>
-  </si>
-  <si>
-    <t>7,69%</t>
-  </si>
-  <si>
-    <t>11,53%</t>
-  </si>
-  <si>
-    <t>9,83%</t>
-  </si>
-  <si>
-    <t>8,55%</t>
-  </si>
-  <si>
-    <t>11,23%</t>
-  </si>
-  <si>
-    <t>Población según si en el barrio donde vive hay trafico intenso de vehículos de motor en 2023 (Tasa respuesta: 99,9%)</t>
-  </si>
-  <si>
-    <t>77,66%</t>
-  </si>
-  <si>
-    <t>66,55%</t>
-  </si>
-  <si>
-    <t>85,95%</t>
-  </si>
-  <si>
-    <t>81,79%</t>
-  </si>
-  <si>
-    <t>70,91%</t>
-  </si>
-  <si>
-    <t>90,18%</t>
-  </si>
-  <si>
-    <t>79,58%</t>
-  </si>
-  <si>
-    <t>72,1%</t>
-  </si>
-  <si>
-    <t>86,18%</t>
-  </si>
-  <si>
-    <t>10,24%</t>
-  </si>
-  <si>
-    <t>5,34%</t>
-  </si>
-  <si>
-    <t>18,83%</t>
-  </si>
-  <si>
-    <t>12,83%</t>
-  </si>
-  <si>
-    <t>6,5%</t>
-  </si>
-  <si>
-    <t>23,23%</t>
-  </si>
-  <si>
-    <t>11,44%</t>
-  </si>
-  <si>
-    <t>6,93%</t>
-  </si>
-  <si>
-    <t>16,76%</t>
-  </si>
-  <si>
-    <t>12,1%</t>
-  </si>
-  <si>
-    <t>5,66%</t>
-  </si>
-  <si>
-    <t>21,81%</t>
-  </si>
-  <si>
-    <t>5,39%</t>
-  </si>
-  <si>
-    <t>1,61%</t>
-  </si>
-  <si>
-    <t>14,17%</t>
-  </si>
-  <si>
-    <t>8,98%</t>
-  </si>
-  <si>
-    <t>4,65%</t>
-  </si>
-  <si>
-    <t>15,56%</t>
-  </si>
-  <si>
-    <t>77,39%</t>
-  </si>
-  <si>
-    <t>73,19%</t>
-  </si>
-  <si>
-    <t>80,75%</t>
-  </si>
-  <si>
-    <t>75,9%</t>
-  </si>
-  <si>
-    <t>70,69%</t>
-  </si>
-  <si>
-    <t>79,42%</t>
-  </si>
-  <si>
-    <t>76,68%</t>
-  </si>
-  <si>
-    <t>74,03%</t>
-  </si>
-  <si>
-    <t>79,33%</t>
-  </si>
-  <si>
-    <t>14,47%</t>
-  </si>
-  <si>
-    <t>11,6%</t>
-  </si>
-  <si>
-    <t>17,88%</t>
-  </si>
-  <si>
-    <t>16,73%</t>
-  </si>
-  <si>
-    <t>13,47%</t>
-  </si>
-  <si>
-    <t>22,57%</t>
-  </si>
-  <si>
-    <t>15,55%</t>
-  </si>
-  <si>
-    <t>13,37%</t>
-  </si>
-  <si>
-    <t>18,43%</t>
-  </si>
-  <si>
-    <t>8,14%</t>
-  </si>
-  <si>
-    <t>6,15%</t>
-  </si>
-  <si>
-    <t>7,37%</t>
-  </si>
-  <si>
-    <t>5,67%</t>
-  </si>
-  <si>
-    <t>9,51%</t>
-  </si>
-  <si>
-    <t>7,77%</t>
-  </si>
-  <si>
-    <t>6,27%</t>
-  </si>
-  <si>
-    <t>9,23%</t>
-  </si>
-  <si>
-    <t>72,21%</t>
-  </si>
-  <si>
-    <t>65,81%</t>
-  </si>
-  <si>
-    <t>78,08%</t>
-  </si>
-  <si>
-    <t>71,1%</t>
-  </si>
-  <si>
-    <t>64,68%</t>
-  </si>
-  <si>
-    <t>77,27%</t>
-  </si>
-  <si>
-    <t>71,69%</t>
-  </si>
-  <si>
-    <t>67,4%</t>
-  </si>
-  <si>
-    <t>75,95%</t>
-  </si>
-  <si>
-    <t>16,97%</t>
-  </si>
-  <si>
-    <t>12,39%</t>
-  </si>
-  <si>
-    <t>22,65%</t>
-  </si>
-  <si>
-    <t>16,11%</t>
-  </si>
-  <si>
-    <t>11,27%</t>
-  </si>
-  <si>
-    <t>21,17%</t>
-  </si>
-  <si>
-    <t>16,57%</t>
-  </si>
-  <si>
-    <t>13,19%</t>
-  </si>
-  <si>
-    <t>20,6%</t>
-  </si>
-  <si>
-    <t>10,82%</t>
-  </si>
-  <si>
-    <t>7,18%</t>
-  </si>
-  <si>
-    <t>15,23%</t>
-  </si>
-  <si>
-    <t>12,79%</t>
-  </si>
-  <si>
-    <t>8,7%</t>
-  </si>
-  <si>
-    <t>18,13%</t>
-  </si>
-  <si>
-    <t>11,74%</t>
-  </si>
-  <si>
-    <t>9,04%</t>
-  </si>
-  <si>
-    <t>15,25%</t>
-  </si>
-  <si>
-    <t>76,17%</t>
-  </si>
-  <si>
-    <t>73,21%</t>
-  </si>
-  <si>
-    <t>79,14%</t>
-  </si>
-  <si>
-    <t>75,25%</t>
-  </si>
-  <si>
-    <t>70,85%</t>
-  </si>
-  <si>
-    <t>78,17%</t>
-  </si>
-  <si>
-    <t>75,73%</t>
-  </si>
-  <si>
-    <t>73,5%</t>
-  </si>
-  <si>
-    <t>77,82%</t>
-  </si>
-  <si>
-    <t>14,73%</t>
-  </si>
-  <si>
-    <t>12,14%</t>
-  </si>
-  <si>
-    <t>17,17%</t>
-  </si>
-  <si>
-    <t>16,28%</t>
-  </si>
-  <si>
-    <t>13,71%</t>
-  </si>
-  <si>
-    <t>20,26%</t>
-  </si>
-  <si>
-    <t>15,46%</t>
-  </si>
-  <si>
-    <t>13,62%</t>
-  </si>
-  <si>
-    <t>17,59%</t>
-  </si>
-  <si>
-    <t>9,1%</t>
-  </si>
-  <si>
-    <t>7,36%</t>
-  </si>
-  <si>
-    <t>11,21%</t>
-  </si>
-  <si>
-    <t>8,47%</t>
-  </si>
-  <si>
-    <t>6,73%</t>
-  </si>
-  <si>
-    <t>10,32%</t>
-  </si>
-  <si>
     <t>8,8%</t>
   </si>
   <si>
-    <t>7,6%</t>
-  </si>
-  <si>
-    <t>10,22%</t>
+    <t>7,56%</t>
+  </si>
+  <si>
+    <t>10,21%</t>
   </si>
 </sst>
 </file>
@@ -1481,7 +1487,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BDF950F4-154E-4171-8D05-C9000D312D48}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{049728C5-0B61-44BE-B7CB-91E3FB287408}">
   <dimension ref="A1:Q24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2523,13 +2529,13 @@
         <v>95928</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>71</v>
+        <v>121</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="H22" s="7">
         <v>122</v>
@@ -2538,13 +2544,13 @@
         <v>86289</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="M22" s="7">
         <v>258</v>
@@ -2553,13 +2559,13 @@
         <v>182217</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>95</v>
+        <v>128</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -2615,7 +2621,7 @@
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
     </row>
   </sheetData>
@@ -2635,7 +2641,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0FEA0679-42D0-4579-A664-32D9DFA7621E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FA999193-B0E7-421F-A0F9-8E963D89E4AE}">
   <dimension ref="A1:Q24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2652,7 +2658,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2941,13 +2947,13 @@
         <v>43122</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="H8" s="7">
         <v>56</v>
@@ -2956,13 +2962,13 @@
         <v>36203</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="M8" s="7">
         <v>117</v>
@@ -2971,13 +2977,13 @@
         <v>79326</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -2992,13 +2998,13 @@
         <v>16815</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="H9" s="7">
         <v>24</v>
@@ -3007,13 +3013,13 @@
         <v>16790</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="M9" s="7">
         <v>49</v>
@@ -3022,13 +3028,13 @@
         <v>33605</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -3043,13 +3049,13 @@
         <v>8677</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="H10" s="7">
         <v>9</v>
@@ -3058,13 +3064,13 @@
         <v>6385</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="M10" s="7">
         <v>22</v>
@@ -3073,13 +3079,13 @@
         <v>15062</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3147,13 +3153,13 @@
         <v>322919</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="H12" s="7">
         <v>474</v>
@@ -3162,13 +3168,13 @@
         <v>313187</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="M12" s="7">
         <v>930</v>
@@ -3177,13 +3183,13 @@
         <v>636106</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -3198,13 +3204,13 @@
         <v>116166</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="H13" s="7">
         <v>182</v>
@@ -3213,13 +3219,13 @@
         <v>119958</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="M13" s="7">
         <v>348</v>
@@ -3228,13 +3234,13 @@
         <v>236125</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3249,13 +3255,13 @@
         <v>48972</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>176</v>
+        <v>42</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="H14" s="7">
         <v>56</v>
@@ -3264,13 +3270,13 @@
         <v>37406</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="M14" s="7">
         <v>128</v>
@@ -3279,13 +3285,13 @@
         <v>86378</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3353,13 +3359,13 @@
         <v>127446</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="H16" s="7">
         <v>163</v>
@@ -3368,13 +3374,13 @@
         <v>109749</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="M16" s="7">
         <v>347</v>
@@ -3383,13 +3389,13 @@
         <v>237195</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3404,13 +3410,13 @@
         <v>40460</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="H17" s="7">
         <v>62</v>
@@ -3419,13 +3425,13 @@
         <v>41231</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>153</v>
+        <v>198</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="M17" s="7">
         <v>122</v>
@@ -3434,13 +3440,13 @@
         <v>81691</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3455,13 +3461,13 @@
         <v>19589</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="H18" s="7">
         <v>32</v>
@@ -3470,13 +3476,13 @@
         <v>21179</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>177</v>
+        <v>206</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>204</v>
+        <v>207</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>205</v>
+        <v>208</v>
       </c>
       <c r="M18" s="7">
         <v>59</v>
@@ -3485,13 +3491,13 @@
         <v>40768</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>208</v>
+        <v>211</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -3559,13 +3565,13 @@
         <v>493486</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>211</v>
+        <v>214</v>
       </c>
       <c r="H20" s="7">
         <v>693</v>
@@ -3574,13 +3580,13 @@
         <v>459140</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>212</v>
+        <v>215</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>214</v>
+        <v>217</v>
       </c>
       <c r="M20" s="7">
         <v>1394</v>
@@ -3589,13 +3595,13 @@
         <v>952627</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>215</v>
+        <v>218</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>217</v>
+        <v>220</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3610,13 +3616,13 @@
         <v>173441</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>220</v>
+        <v>223</v>
       </c>
       <c r="H21" s="7">
         <v>268</v>
@@ -3625,13 +3631,13 @@
         <v>177979</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>222</v>
+        <v>225</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="M21" s="7">
         <v>519</v>
@@ -3640,13 +3646,13 @@
         <v>351421</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>226</v>
+        <v>229</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -3661,13 +3667,13 @@
         <v>77239</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>228</v>
+        <v>231</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>229</v>
+        <v>232</v>
       </c>
       <c r="H22" s="7">
         <v>97</v>
@@ -3676,13 +3682,13 @@
         <v>64969</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>230</v>
+        <v>233</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>231</v>
+        <v>234</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>232</v>
+        <v>235</v>
       </c>
       <c r="M22" s="7">
         <v>209</v>
@@ -3691,13 +3697,13 @@
         <v>142208</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>233</v>
+        <v>236</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>234</v>
+        <v>237</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>235</v>
+        <v>238</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -3753,7 +3759,7 @@
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
     </row>
   </sheetData>
@@ -3773,7 +3779,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3372F5C7-D6B3-4A39-842E-88E8373A0090}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8AF51F16-9224-4D83-98D7-A23BE5E21AD0}">
   <dimension ref="A1:Q24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3790,7 +3796,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>236</v>
+        <v>239</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4079,13 +4085,13 @@
         <v>45628</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>237</v>
+        <v>240</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>238</v>
+        <v>241</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>239</v>
+        <v>242</v>
       </c>
       <c r="H8" s="7">
         <v>54</v>
@@ -4094,13 +4100,13 @@
         <v>41877</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>240</v>
+        <v>243</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>241</v>
+        <v>244</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>242</v>
+        <v>245</v>
       </c>
       <c r="M8" s="7">
         <v>120</v>
@@ -4109,13 +4115,13 @@
         <v>87504</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>243</v>
+        <v>246</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>244</v>
+        <v>247</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>245</v>
+        <v>248</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4130,13 +4136,13 @@
         <v>6017</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>246</v>
+        <v>249</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>247</v>
+        <v>250</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>248</v>
+        <v>251</v>
       </c>
       <c r="H9" s="7">
         <v>11</v>
@@ -4145,13 +4151,13 @@
         <v>6568</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>249</v>
+        <v>252</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>250</v>
+        <v>253</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>251</v>
+        <v>254</v>
       </c>
       <c r="M9" s="7">
         <v>20</v>
@@ -4160,13 +4166,13 @@
         <v>12585</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>252</v>
+        <v>255</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>253</v>
+        <v>256</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>254</v>
+        <v>257</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -4181,13 +4187,13 @@
         <v>7112</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>255</v>
+        <v>258</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>256</v>
+        <v>259</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>257</v>
+        <v>260</v>
       </c>
       <c r="H10" s="7">
         <v>4</v>
@@ -4196,13 +4202,13 @@
         <v>2758</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>258</v>
+        <v>261</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>259</v>
+        <v>262</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="M10" s="7">
         <v>12</v>
@@ -4211,13 +4217,13 @@
         <v>9870</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>261</v>
+        <v>264</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>262</v>
+        <v>265</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>263</v>
+        <v>266</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4285,13 +4291,13 @@
         <v>381029</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>264</v>
+        <v>267</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>265</v>
+        <v>268</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>266</v>
+        <v>269</v>
       </c>
       <c r="H12" s="7">
         <v>501</v>
@@ -4300,13 +4306,13 @@
         <v>341531</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>267</v>
+        <v>270</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>268</v>
+        <v>271</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>269</v>
+        <v>272</v>
       </c>
       <c r="M12" s="7">
         <v>1011</v>
@@ -4315,13 +4321,13 @@
         <v>722561</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>270</v>
+        <v>273</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>271</v>
+        <v>274</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>272</v>
+        <v>275</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -4336,13 +4342,13 @@
         <v>71267</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>273</v>
+        <v>276</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>274</v>
+        <v>277</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="H13" s="7">
         <v>93</v>
@@ -4351,13 +4357,13 @@
         <v>75279</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>276</v>
+        <v>279</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>277</v>
+        <v>280</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>278</v>
+        <v>281</v>
       </c>
       <c r="M13" s="7">
         <v>185</v>
@@ -4366,13 +4372,13 @@
         <v>146546</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>279</v>
+        <v>282</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>280</v>
+        <v>283</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>281</v>
+        <v>284</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4387,13 +4393,13 @@
         <v>40068</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>282</v>
+        <v>285</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>283</v>
+        <v>286</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>183</v>
+        <v>287</v>
       </c>
       <c r="H14" s="7">
         <v>49</v>
@@ -4402,13 +4408,13 @@
         <v>33157</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>284</v>
+        <v>288</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>285</v>
+        <v>289</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>286</v>
+        <v>290</v>
       </c>
       <c r="M14" s="7">
         <v>103</v>
@@ -4417,13 +4423,13 @@
         <v>73226</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>287</v>
+        <v>291</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>288</v>
+        <v>292</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>289</v>
+        <v>293</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4491,13 +4497,13 @@
         <v>125418</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>290</v>
+        <v>294</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>291</v>
+        <v>295</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>292</v>
+        <v>296</v>
       </c>
       <c r="H16" s="7">
         <v>167</v>
@@ -4506,13 +4512,13 @@
         <v>107622</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>293</v>
+        <v>297</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>294</v>
+        <v>298</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>295</v>
+        <v>299</v>
       </c>
       <c r="M16" s="7">
         <v>339</v>
@@ -4521,13 +4527,13 @@
         <v>233040</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>296</v>
+        <v>300</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>297</v>
+        <v>301</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>298</v>
+        <v>302</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4542,13 +4548,13 @@
         <v>29475</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>299</v>
+        <v>303</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>300</v>
+        <v>304</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>301</v>
+        <v>200</v>
       </c>
       <c r="H17" s="7">
         <v>36</v>
@@ -4557,13 +4563,13 @@
         <v>24384</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>302</v>
+        <v>305</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>303</v>
+        <v>306</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>304</v>
+        <v>307</v>
       </c>
       <c r="M17" s="7">
         <v>76</v>
@@ -4572,13 +4578,13 @@
         <v>53859</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>305</v>
+        <v>308</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>306</v>
+        <v>309</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>307</v>
+        <v>310</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4593,13 +4599,13 @@
         <v>18788</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>308</v>
+        <v>311</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>309</v>
+        <v>312</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>310</v>
+        <v>313</v>
       </c>
       <c r="H18" s="7">
         <v>27</v>
@@ -4608,13 +4614,13 @@
         <v>19364</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>311</v>
+        <v>314</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>312</v>
+        <v>315</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>313</v>
+        <v>316</v>
       </c>
       <c r="M18" s="7">
         <v>52</v>
@@ -4623,13 +4629,13 @@
         <v>38152</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>314</v>
+        <v>317</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>315</v>
+        <v>318</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>316</v>
+        <v>319</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -4697,13 +4703,13 @@
         <v>552075</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>317</v>
+        <v>320</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>318</v>
+        <v>321</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>319</v>
+        <v>322</v>
       </c>
       <c r="H20" s="7">
         <v>722</v>
@@ -4712,13 +4718,13 @@
         <v>491030</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>320</v>
+        <v>323</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>321</v>
+        <v>324</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>322</v>
+        <v>325</v>
       </c>
       <c r="M20" s="7">
         <v>1470</v>
@@ -4727,13 +4733,13 @@
         <v>1043105</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>323</v>
+        <v>326</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>324</v>
+        <v>327</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>325</v>
+        <v>328</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4748,13 +4754,13 @@
         <v>106759</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>326</v>
+        <v>329</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>327</v>
+        <v>232</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>328</v>
+        <v>330</v>
       </c>
       <c r="H21" s="7">
         <v>140</v>
@@ -4763,13 +4769,13 @@
         <v>106231</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="M21" s="7">
         <v>281</v>
@@ -4778,13 +4784,13 @@
         <v>212990</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>332</v>
+        <v>334</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>334</v>
+        <v>336</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -4799,13 +4805,13 @@
         <v>65968</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>335</v>
+        <v>337</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>336</v>
+        <v>338</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>337</v>
+        <v>339</v>
       </c>
       <c r="H22" s="7">
         <v>80</v>
@@ -4814,13 +4820,13 @@
         <v>55280</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>338</v>
+        <v>340</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>339</v>
+        <v>341</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>340</v>
+        <v>342</v>
       </c>
       <c r="M22" s="7">
         <v>167</v>
@@ -4829,13 +4835,13 @@
         <v>121248</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>341</v>
+        <v>343</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>342</v>
+        <v>344</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>343</v>
+        <v>345</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -4891,7 +4897,7 @@
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
     </row>
   </sheetData>
